--- a/biology/Botanique/Aechmea_aquilega/Aechmea_aquilega.xlsx
+++ b/biology/Botanique/Aechmea_aquilega/Aechmea_aquilega.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aechmea aquilega est une espèce de plante de la famille des Bromeliaceae, originaire du Brésil.
 </t>
@@ -511,22 +523,24 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Aechmea aquilega f. alba Oliva-Esteve[2] ;
-Aechmea aquilega var. aquilega[2] ;
-Aechmea aquilegioides Kuntze[2] ;
-Aechmea exsudans (Lodd.) E.Morren[2] ;
-Aechmea meyeri Baker[2] ;
-Bromelia aquilega Salisb.[2] ;
-Bromelia exsudans Lodd.[2] ;
-Bromelia paniculigera Rchb.[2] ;
-Bromelia surinamensis Miq.[2] ;
-Gravisia aquilega (Salisb.) Mez[2] ;
-Gravisia exsudans (Lodd.) Mez[2] ;
-Hohenbergia exsudans (Lodd.) E.Morren[2] ;
-Tillandsia exsudans (Lodd.) Desf.[2].
+Aechmea aquilega f. alba Oliva-Esteve ;
+Aechmea aquilega var. aquilega ;
+Aechmea aquilegioides Kuntze ;
+Aechmea exsudans (Lodd.) E.Morren ;
+Aechmea meyeri Baker ;
+Bromelia aquilega Salisb. ;
+Bromelia exsudans Lodd. ;
+Bromelia paniculigera Rchb. ;
+Bromelia surinamensis Miq. ;
+Gravisia aquilega (Salisb.) Mez ;
+Gravisia exsudans (Lodd.) Mez ;
+Hohenbergia exsudans (Lodd.) E.Morren ;
+Tillandsia exsudans (Lodd.) Desf..
 </t>
         </is>
       </c>
@@ -557,12 +571,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Aechmea aquilega var. chrysocoma (Baker) L.B.Sm.
-Synonymes
-Aechmea chrysocoma Baker[3] ;
-Gravisia aquilega var. chrysocoma (Baker) L.B.Sm.[3] ;
-Gravisia chrysocoma (Baker) Mez[3] ;
-Hohenbergia chrysocoma (Baker) E.Morren ex Baker[3].</t>
+          <t>Aechmea aquilega var. chrysocoma (Baker) L.B.Sm.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Synonymes
+Aechmea chrysocoma Baker ;
+Gravisia aquilega var. chrysocoma (Baker) L.B.Sm. ;
+Gravisia chrysocoma (Baker) Mez ;
+Hohenbergia chrysocoma (Baker) E.Morren ex Baker.</t>
         </is>
       </c>
     </row>
@@ -590,7 +609,9 @@
           <t>Cultivars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Aechmea 'Exotica Mystique'
 Aechmea 'Isabel D'Bellard'
